--- a/bos/Pendências de Validação.xlsx
+++ b/bos/Pendências de Validação.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="159">
   <si>
     <t>Campo</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>diminuir campo</t>
+  </si>
+  <si>
+    <t>Tela ESCOLARIDADE</t>
+  </si>
+  <si>
+    <t>Tela Proficiência</t>
   </si>
 </sst>
 </file>
@@ -877,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E78"/>
+  <dimension ref="A2:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,6 +1604,16 @@
       </c>
       <c r="C78" s="4" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/bos/Pendências de Validação.xlsx
+++ b/bos/Pendências de Validação.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="167">
   <si>
     <t>Campo</t>
   </si>
@@ -507,10 +507,34 @@
     <t>diminuir campo</t>
   </si>
   <si>
-    <t>Tela ESCOLARIDADE</t>
-  </si>
-  <si>
-    <t>Tela Proficiência</t>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Corrigir insere linhas (iniciar na linha 1)</t>
+  </si>
+  <si>
+    <t>Remover campo Idioma X ao clicar em [+]</t>
+  </si>
+  <si>
+    <t>Incluir [-] em Novo Idioma/Instiruição para remover campo</t>
+  </si>
+  <si>
+    <t>Corrigir largura do campo "Escreve"</t>
+  </si>
+  <si>
+    <t>Exibir "Órgão financiador" se "Bolsa?" = sim</t>
+  </si>
+  <si>
+    <t>Incluir botão [+] em "Órgão Financiador"</t>
+  </si>
+  <si>
+    <t>Inclruir botão [-] em Novo Órgão para remover campo</t>
+  </si>
+  <si>
+    <t>UF Nascimento</t>
+  </si>
+  <si>
+    <t>Aparece se Nacionalidade = Brasil</t>
   </si>
 </sst>
 </file>
@@ -883,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E80"/>
+  <dimension ref="A2:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,10 +1634,51 @@
       <c r="B79" t="s">
         <v>157</v>
       </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>158</v>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/bos/Pendências de Validação.xlsx
+++ b/bos/Pendências de Validação.xlsx
@@ -597,14 +597,14 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B79" sqref="B79:C87"/>
     </sheetView>
   </sheetViews>
@@ -926,7 +926,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>41565</v>
       </c>
       <c r="B3" t="s">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1003,13 +1003,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>50</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="C35" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>41582</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1302,16 +1302,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
@@ -1320,45 +1320,45 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
       <c r="C43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>19</v>
       </c>
@@ -1367,31 +1367,31 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="7"/>
       <c r="C45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>74</v>
       </c>
@@ -1400,25 +1400,25 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="7"/>
       <c r="B51" t="s">
         <v>79</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>81</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>83</v>
       </c>
@@ -1445,16 +1445,16 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>62</v>
       </c>
@@ -1463,28 +1463,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
       <c r="C56" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
       <c r="C57" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
         <v>90</v>
       </c>
@@ -1493,43 +1493,43 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
       <c r="C60" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
       <c r="C61" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
       <c r="C62" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
       <c r="C63" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
       <c r="C64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="C65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
@@ -1538,40 +1538,40 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
       <c r="C67" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
       <c r="C68" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
       <c r="C69" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
       <c r="C70" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>105</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>107</v>
       </c>
@@ -1589,13 +1589,13 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
       <c r="C74" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>110</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="7"/>
       <c r="B76" t="s">
         <v>112</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="7"/>
       <c r="B77" t="s">
         <v>114</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
         <v>115</v>
       </c>
@@ -1707,7 +1707,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>41582</v>
       </c>
       <c r="B2" t="s">
@@ -1718,13 +1718,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>120</v>
       </c>
@@ -1751,13 +1751,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="C7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>126</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>127</v>
       </c>
@@ -1876,7 +1876,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>41582</v>
       </c>
       <c r="B2" t="s">
@@ -1887,19 +1887,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>134</v>
       </c>
@@ -1917,16 +1917,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="C7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1952,7 +1952,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>41582</v>
       </c>
       <c r="B2" t="s">
@@ -1960,50 +1960,50 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>145</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>148</v>
       </c>
